--- a/TestResults/MHI_Test_Drive_log-2013-10-21_full-sweep_100ms-cycle-IDs.xlsx
+++ b/TestResults/MHI_Test_Drive_log-2013-10-21_full-sweep_100ms-cycle-IDs.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="660" windowWidth="27315" windowHeight="12720"/>
+    <workbookView xWindow="960" yWindow="660" windowWidth="24240" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="MHI_Test_Drive_log-2013-10-21_f" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -753,11 +753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="132044288"/>
-        <c:axId val="132042752"/>
+        <c:axId val="136328320"/>
+        <c:axId val="136330240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="132044288"/>
+        <c:axId val="136328320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,13 +767,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132042752"/>
+        <c:crossAx val="136330240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132042752"/>
+        <c:axId val="136330240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132044288"/>
+        <c:crossAx val="136328320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1131,7 +1131,7 @@
   <dimension ref="C3:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,6 +1479,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>